--- a/lib/excels/local_seeds.xlsx
+++ b/lib/excels/local_seeds.xlsx
@@ -20,9 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t xml:space="preserve">Seed Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
   </si>
   <si>
     <t xml:space="preserve">Seed Status</t>
@@ -324,20 +327,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BT1"/>
+  <dimension ref="A1:BU1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BI1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BN2" activeCellId="0" sqref="BN2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="18.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="0" width="13.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="0" width="12.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="0" width="14.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="0" width="14.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="0" width="13.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="18.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="0" width="13.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="0" width="12.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="0" width="14.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="0" width="13.89"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -539,12 +542,15 @@
       <c r="BN1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="1"/>
+      <c r="BO1" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="BP1" s="1"/>
       <c r="BQ1" s="1"/>
       <c r="BR1" s="1"/>
       <c r="BS1" s="1"/>
       <c r="BT1" s="1"/>
+      <c r="BU1" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
